--- a/06_Übung4/02_Lösung/max werte.xlsx
+++ b/06_Übung4/02_Lösung/max werte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>frequenz</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>zahl+1</t>
+  </si>
+  <si>
+    <t>min wert an</t>
+  </si>
+  <si>
+    <t>max wert an</t>
+  </si>
+  <si>
+    <t>&lt;- für leds an</t>
+  </si>
+  <si>
+    <t>mittelwert in 1024</t>
+  </si>
+  <si>
+    <t>aufgenommen</t>
+  </si>
+  <si>
+    <t>Rausxchen ist immer 0</t>
   </si>
 </sst>
 </file>
@@ -373,18 +391,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +423,23 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>697</v>
       </c>
@@ -435,8 +470,27 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>670</v>
+      </c>
+      <c r="M2">
+        <v>720</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(P2:R2)</f>
+        <v>5461.333333333333</v>
+      </c>
+      <c r="P2">
+        <v>1024</v>
+      </c>
+      <c r="Q2">
+        <v>8192</v>
+      </c>
+      <c r="R2">
+        <v>7168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>770</v>
       </c>
@@ -467,8 +521,27 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>750</v>
+      </c>
+      <c r="M3">
+        <v>800</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O9" si="5">AVERAGE(P3:R3)</f>
+        <v>5802.666666666667</v>
+      </c>
+      <c r="P3">
+        <v>2048</v>
+      </c>
+      <c r="Q3">
+        <v>14336</v>
+      </c>
+      <c r="R3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>852</v>
       </c>
@@ -499,8 +572,27 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>840</v>
+      </c>
+      <c r="M4">
+        <v>880</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>5802.666666666667</v>
+      </c>
+      <c r="P4">
+        <v>2048</v>
+      </c>
+      <c r="Q4">
+        <v>14336</v>
+      </c>
+      <c r="R4">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>941</v>
       </c>
@@ -531,8 +623,27 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>920</v>
+      </c>
+      <c r="M5">
+        <v>960</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>5802.666666666667</v>
+      </c>
+      <c r="P5">
+        <v>1024</v>
+      </c>
+      <c r="Q5">
+        <v>13312</v>
+      </c>
+      <c r="R5">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1209</v>
       </c>
@@ -563,8 +674,27 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1170</v>
+      </c>
+      <c r="M6">
+        <v>1240</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>6485.333333333333</v>
+      </c>
+      <c r="P6">
+        <v>19456</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1336</v>
       </c>
@@ -595,8 +725,27 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1210</v>
+      </c>
+      <c r="M7">
+        <v>1360</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>5802.666666666667</v>
+      </c>
+      <c r="P7">
+        <v>1024</v>
+      </c>
+      <c r="Q7">
+        <v>13312</v>
+      </c>
+      <c r="R7">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1477</v>
       </c>
@@ -627,8 +776,27 @@
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1460</v>
+      </c>
+      <c r="M8">
+        <v>1500</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>5802.666666666667</v>
+      </c>
+      <c r="P8">
+        <v>3072</v>
+      </c>
+      <c r="Q8">
+        <v>13312</v>
+      </c>
+      <c r="R8">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1633</v>
       </c>
@@ -659,21 +827,43 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1600</v>
+      </c>
+      <c r="M9">
+        <v>16050</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>6144</v>
+      </c>
+      <c r="P9">
+        <v>18432</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="E10" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -682,7 +872,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>600</v>
       </c>
@@ -691,7 +881,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1750</v>
       </c>
@@ -700,7 +890,7 @@
         <v>149.33333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4250</v>
       </c>
@@ -709,7 +899,7 @@
         <v>362.66666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
